--- a/OutputData/Nipah/Nipah_P_G_Combined_12_12.xlsx
+++ b/OutputData/Nipah/Nipah_P_G_Combined_12_12.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>Nipah (12)</t>
+          <t>Nipah (2)</t>
         </is>
       </c>
       <c r="L2" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="M2" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N2" s="3" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="O2" s="3" t="inlineStr">
         <is>
-          <t>NA (12)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="P2" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="Q2" s="3" t="inlineStr">
         <is>
-          <t>NA (12)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="R2" s="3" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="S2" s="3" t="inlineStr">
         <is>
-          <t>NA (12)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="T2" s="3" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>NA (12)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="W2" s="3" t="inlineStr">
         <is>
-          <t>genome (12)</t>
+          <t>Other (2)</t>
         </is>
       </c>
       <c r="X2" s="3" t="inlineStr">
@@ -762,19 +762,17 @@
       </c>
       <c r="AC2" s="3" t="inlineStr">
         <is>
-          <t>NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302</t>
+          <t>AF212302.2, NC_002728.1</t>
         </is>
       </c>
       <c r="AD2" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (78)
-500-1000 (12)
-5000-10000 (12)</t>
+          <t>500-1000 (2), 1000-3000 (13), 5000-10000 (2)</t>
         </is>
       </c>
       <c r="AE2" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (102)</t>
+          <t>95%-100% (17)</t>
         </is>
       </c>
     </row>
@@ -831,7 +829,7 @@
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>Nipah (35)</t>
+          <t>Nipah (7)</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
@@ -840,7 +838,7 @@
         </is>
       </c>
       <c r="M3" s="3" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N3" s="3" t="inlineStr">
         <is>
@@ -849,8 +847,7 @@
       </c>
       <c r="O3" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (25)
-NA (10)</t>
+          <t>Homo sapiens (5), NA (2)</t>
         </is>
       </c>
       <c r="P3" s="3" t="inlineStr">
@@ -860,7 +857,7 @@
       </c>
       <c r="Q3" s="3" t="inlineStr">
         <is>
-          <t>NA (35)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="R3" s="3" t="inlineStr">
@@ -870,7 +867,7 @@
       </c>
       <c r="S3" s="3" t="inlineStr">
         <is>
-          <t>2014.0 (35)</t>
+          <t>2014 (7)</t>
         </is>
       </c>
       <c r="T3" s="3" t="inlineStr">
@@ -880,7 +877,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>Bangladesh (35)</t>
+          <t>Bangladesh (7)</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -890,7 +887,7 @@
       </c>
       <c r="W3" s="3" t="inlineStr">
         <is>
-          <t>NA (35)</t>
+          <t>NA (7)</t>
         </is>
       </c>
       <c r="X3" s="3" t="inlineStr">
@@ -908,21 +905,17 @@
       </c>
       <c r="AC3" s="3" t="inlineStr">
         <is>
-          <t>MF133377, MF133376, MF133375, MF133374, MF133373, KY887671, KY887670, MF133377, MF133376, MF133375, MF133374, MF133373, KY887671, KY887670, MF133377, MF133376, MF133375, MF133374, MF133373, KY887671, KY887670, MF133377, MF133376, MF133375, MF133374, MF133373, KY887671, KY887670, KY887671, KY887670, MF133377, MF133376, MF133375, MF133374, MF133373</t>
+          <t>KY887670.1, KY887671.1, MF133373.1, MF133374.1, MF133375.1, MF133376.1, MF133377.1</t>
         </is>
       </c>
       <c r="AD3" s="3" t="inlineStr">
         <is>
-          <t>318 (15)
-364 (10)
-297 (5)
-354 (5)</t>
+          <t>318 (3), 364 (2), 297 (1), 354 (1)</t>
         </is>
       </c>
       <c r="AE3" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (20)
-90%-95% (15)</t>
+          <t>90%-95% (3), 95%-100% (4)</t>
         </is>
       </c>
     </row>
@@ -979,7 +972,7 @@
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>Nipah (174)</t>
+          <t>Nipah (48)</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -988,7 +981,7 @@
         </is>
       </c>
       <c r="M4" s="3" t="n">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
@@ -997,7 +990,7 @@
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>Bat (174)</t>
+          <t>Bat (48)</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
@@ -1007,7 +1000,7 @@
       </c>
       <c r="Q4" s="3" t="inlineStr">
         <is>
-          <t>urine (174)</t>
+          <t>urine (48)</t>
         </is>
       </c>
       <c r="R4" s="3" t="inlineStr">
@@ -1017,8 +1010,7 @@
       </c>
       <c r="S4" s="3" t="inlineStr">
         <is>
-          <t>NA (153)
-2007.0 (21)</t>
+          <t>NA (45), 2007 (3)</t>
         </is>
       </c>
       <c r="T4" s="3" t="inlineStr">
@@ -1028,7 +1020,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>Thailand (174)</t>
+          <t>Thailand (48)</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
@@ -1038,7 +1030,7 @@
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t>NA (174)</t>
+          <t>NA (48)</t>
         </is>
       </c>
       <c r="X4" s="3" t="inlineStr">
@@ -1064,19 +1056,17 @@
       </c>
       <c r="AC4" s="3" t="inlineStr">
         <is>
-          <t>EU624737, EU624736, EU624735, EU603724, EU603725, EU603726, EU603727, EU603728, EU603729, EU603730, EU603731, EU603732, EU603733, EU603734, EU603735, EU603736, EU603737, EU603738, EU603739, EU603740, EU603741, EU603742, EU603743, EU603744, EU603745, EU603746, EU603747, EU603748, EU603749, EU603750, EU603751, EU603752, EU603753, EU603754, EU603755, EU603756, EU603757, EU603758, EU620498, EU624735, EU624736, EU624737, EU624737, EU624736, EU624735, EU624737, EU624736, EU624735, EU603724, EU603725, EU603726, EU603727, EU603728, EU603729, EU603730, EU603731, EU603732, EU603733, EU603734, EU603735, EU603736, EU603737, EU603738, EU603739, EU603740, EU603741, EU603742, EU603743, EU603744, EU603745, EU603746, EU603747, EU603748, EU603749, EU603750, EU603751, EU603752, EU603753, EU603754, EU603755, EU603756, EU603757, EU603758, EU620498, EU624735, EU624736, EU624737, EU603724, EU603725, EU603726, EU603727, EU603728, EU603729, EU603730, EU603731, EU603732, EU603733, EU603734, EU603735, EU603736, EU603737, EU603738, EU603739, EU603740, EU603741, EU603742, EU603743, EU603744, EU603745, EU603746, EU603747, EU603748, EU603749, EU603750, EU603751, EU603752, EU603753, EU603754, EU603755, EU603756, EU603757, EU603758, EU620498, EU624735, EU624736, EU624737, EU603724, EU603725, EU603726, EU603727, EU603728, EU603729, EU603730, EU603731, EU603732, EU603733, EU603734, EU603735, EU603736, EU603737, EU603738, EU603739, EU603740, EU603741, EU603742, EU603743, EU603744, EU603745, EU603746, EU603747, EU603748, EU603749, EU603750, EU603751, EU603752, EU603753, EU603754, EU603755, EU603756, EU603757, EU603758, EU620498, EU624735, EU624736, EU624737, EF070182, EF070183, EF070184, EF070185, EF070186, EF070187, EF070188, EF070189, EF070190</t>
+          <t>EF070182.1, EF070183.1, EF070184.1, EF070185.1, EF070186.1, EF070187.1, EF070188.1, EF070189.1, EF070190.1, EU603724.1, EU603725.1, EU603726.1, EU603727.1, EU603728.1, EU603729.1, EU603730.1, EU603731.1, EU603732.1, EU603733.1, EU603734.1, EU603735.1, EU603736.1, EU603737.1, EU603738.1, EU603739.1, EU603740.1, EU603741.1, EU603742.1, EU603743.1, EU603744.1, EU603745.1, EU603746.1, EU603747.1, EU603748.1, EU603749.1, EU603750.1, EU603751.1, EU603752.1, EU603753.1, EU603754.1, EU603755.1, EU603756.1, EU603757.1, EU603758.1, EU620498.1, EU624735.1, EU624736.1, EU624737.1</t>
         </is>
       </c>
       <c r="AD4" s="3" t="inlineStr">
         <is>
-          <t>357 (153)
-181 (21)</t>
+          <t>357 (45), 181 (3)</t>
         </is>
       </c>
       <c r="AE4" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (124)
-95%-100% (50)</t>
+          <t>90%-95% (37), 95%-100% (11)</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1123,7 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>Nipah (10)</t>
+          <t>Nipah (4)</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -1142,7 +1132,7 @@
         </is>
       </c>
       <c r="M5" s="3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
@@ -1151,8 +1141,7 @@
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>NA (9)
-Pig (1)</t>
+          <t>NA (3), Pig (1)</t>
         </is>
       </c>
       <c r="P5" s="3" t="inlineStr">
@@ -1162,7 +1151,7 @@
       </c>
       <c r="Q5" s="3" t="inlineStr">
         <is>
-          <t>NA (10)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="R5" s="3" t="inlineStr">
@@ -1172,7 +1161,7 @@
       </c>
       <c r="S5" s="3" t="inlineStr">
         <is>
-          <t>NA (10)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="T5" s="3" t="inlineStr">
@@ -1182,8 +1171,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>NA (9)
-Malaysia (1)</t>
+          <t>NA (3), Malaysia (1)</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
@@ -1193,7 +1181,7 @@
       </c>
       <c r="W5" s="3" t="inlineStr">
         <is>
-          <t>genome (10)</t>
+          <t>Other (4)</t>
         </is>
       </c>
       <c r="X5" s="3" t="inlineStr">
@@ -1211,18 +1199,17 @@
       </c>
       <c r="AC5" s="3" t="inlineStr">
         <is>
-          <t>AJ564621, AJ564622, AJ564623, AJ564621, AJ564622, AJ564623, AJ564621, AJ564622, AJ564623, AJ627196</t>
+          <t>AJ564621.1, AJ564622.1, AJ564623.1, AJ627196.1</t>
         </is>
       </c>
       <c r="AD5" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (50)
-5000-10000 (10)</t>
+          <t>1000-3000 (20), 5000-10000 (4)</t>
         </is>
       </c>
       <c r="AE5" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (60)</t>
+          <t>95%-100% (24)</t>
         </is>
       </c>
     </row>
@@ -1317,9 +1304,7 @@
       </c>
       <c r="S6" s="3" t="inlineStr">
         <is>
-          <t>2015.0 (22)
-2014.0 (3)
-2013.0 (1)</t>
+          <t>2015 (22), 2014 (3), 2013 (1)</t>
         </is>
       </c>
       <c r="T6" s="3" t="inlineStr">
@@ -1357,20 +1342,17 @@
       </c>
       <c r="AC6" s="3" t="inlineStr">
         <is>
-          <t>OR762512, OR762513, OR762514, OR762515, OR762516, OR762517, OR762518, OR762519, OR762520, OR762521, OR762522, OR762523, OR762524, OR762525, OR762526, OR762527, OR762528, OR762529, OR762530, OR762531, OR762532, OR762533, OR762534, OR762535, OR762536, OR762537</t>
+          <t>OR762512.1, OR762513.1, OR762514.1, OR762515.1, OR762516.1, OR762517.1, OR762518.1, OR762519.1, OR762520.1, OR762521.1, OR762522.1, OR762523.1, OR762524.1, OR762525.1, OR762526.1, OR762527.1, OR762528.1, OR762529.1, OR762530.1, OR762531.1, OR762532.1, OR762533.1, OR762534.1, OR762535.1, OR762536.1, OR762537.1</t>
         </is>
       </c>
       <c r="AD6" s="3" t="inlineStr">
         <is>
-          <t>500-1000 (19)
-100-500 (9)
-1000-3000 (1)</t>
+          <t>100-500 (9), 500-1000 (19), 1000-3000 (1)</t>
         </is>
       </c>
       <c r="AE6" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (21)
-95%-100% (8)</t>
+          <t>90%-95% (21), 95%-100% (8)</t>
         </is>
       </c>
     </row>
@@ -1427,7 +1409,7 @@
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>Nipah (6)</t>
+          <t>Nipah (2)</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
@@ -1436,7 +1418,7 @@
         </is>
       </c>
       <c r="M7" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
@@ -1445,7 +1427,7 @@
       </c>
       <c r="O7" s="3" t="inlineStr">
         <is>
-          <t>NA (6)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="P7" s="3" t="inlineStr">
@@ -1455,7 +1437,7 @@
       </c>
       <c r="Q7" s="3" t="inlineStr">
         <is>
-          <t>NA (6)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="R7" s="3" t="inlineStr">
@@ -1465,7 +1447,7 @@
       </c>
       <c r="S7" s="3" t="inlineStr">
         <is>
-          <t>NA (6)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="T7" s="3" t="inlineStr">
@@ -1475,7 +1457,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>Malaysia (6)</t>
+          <t>Malaysia (2)</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
@@ -1485,7 +1467,7 @@
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>genome (6)</t>
+          <t>Other (2)</t>
         </is>
       </c>
       <c r="X7" s="3" t="inlineStr">
@@ -1507,19 +1489,17 @@
       </c>
       <c r="AC7" s="3" t="inlineStr">
         <is>
-          <t>AY029767, AY029768, AY029767, AY029768, AY029767, AY029768</t>
+          <t>AY029767.1, AY029768.1</t>
         </is>
       </c>
       <c r="AD7" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (36)
-500-1000 (6)
-5000-10000 (6)</t>
+          <t>500-1000 (2), 1000-3000 (12), 5000-10000 (2)</t>
         </is>
       </c>
       <c r="AE7" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (48)</t>
+          <t>95%-100% (16)</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1556,7 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
@@ -1585,7 +1565,7 @@
         </is>
       </c>
       <c r="M8" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
@@ -1594,7 +1574,7 @@
       </c>
       <c r="O8" s="3" t="inlineStr">
         <is>
-          <t>Bat (2)</t>
+          <t>Bat (1)</t>
         </is>
       </c>
       <c r="P8" s="3" t="inlineStr">
@@ -1604,7 +1584,7 @@
       </c>
       <c r="Q8" s="3" t="inlineStr">
         <is>
-          <t>urine (2)</t>
+          <t>urine (1)</t>
         </is>
       </c>
       <c r="R8" s="3" t="inlineStr">
@@ -1614,7 +1594,7 @@
       </c>
       <c r="S8" s="3" t="inlineStr">
         <is>
-          <t>2008.0 (2)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="T8" s="3" t="inlineStr">
@@ -1624,7 +1604,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>Malaysia (2)</t>
+          <t>Malaysia (1)</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
@@ -1634,7 +1614,7 @@
       </c>
       <c r="W8" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X8" s="3" t="inlineStr">
@@ -1656,18 +1636,17 @@
       </c>
       <c r="AC8" s="3" t="inlineStr">
         <is>
-          <t>FN869553, FN869553</t>
+          <t>FN869553.1</t>
         </is>
       </c>
       <c r="AD8" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (10)
-5000-10000 (2)</t>
+          <t>1000-3000 (5), 5000-10000 (1)</t>
         </is>
       </c>
       <c r="AE8" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (12)</t>
+          <t>95%-100% (6)</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1703,7 @@
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>Nipah (3)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
@@ -1733,7 +1712,7 @@
         </is>
       </c>
       <c r="M9" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
@@ -1742,7 +1721,7 @@
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>NA (3)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
@@ -1752,7 +1731,7 @@
       </c>
       <c r="Q9" s="3" t="inlineStr">
         <is>
-          <t>NA (3)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R9" s="3" t="inlineStr">
@@ -1762,7 +1741,7 @@
       </c>
       <c r="S9" s="3" t="inlineStr">
         <is>
-          <t>NA (3)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T9" s="3" t="inlineStr">
@@ -1772,7 +1751,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>Malaysia (3)</t>
+          <t>Malaysia (1)</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
@@ -1782,7 +1761,7 @@
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t>NA (3)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X9" s="3" t="inlineStr">
@@ -1800,18 +1779,17 @@
       </c>
       <c r="AC9" s="3" t="inlineStr">
         <is>
-          <t>AF376747, AF376747, AF376747</t>
+          <t>AF376747.1</t>
         </is>
       </c>
       <c r="AD9" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (18)
-500-1000 (3)</t>
+          <t>500-1000 (1), 1000-3000 (6)</t>
         </is>
       </c>
       <c r="AE9" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (21)</t>
+          <t>95%-100% (7)</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1846,7 @@
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>Nipah (14)</t>
+          <t>Nipah (4)</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
@@ -1877,7 +1855,7 @@
         </is>
       </c>
       <c r="M10" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N10" s="3" t="inlineStr">
         <is>
@@ -1886,7 +1864,7 @@
       </c>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr">
@@ -1896,7 +1874,7 @@
       </c>
       <c r="Q10" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="R10" s="3" t="inlineStr">
@@ -1906,7 +1884,7 @@
       </c>
       <c r="S10" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="T10" s="3" t="inlineStr">
@@ -1916,7 +1894,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
@@ -1926,8 +1904,7 @@
       </c>
       <c r="W10" s="3" t="inlineStr">
         <is>
-          <t>genome (8)
-NA (6)</t>
+          <t>Other (2), NA (2)</t>
         </is>
       </c>
       <c r="X10" s="3" t="inlineStr">
@@ -1951,21 +1928,17 @@
       </c>
       <c r="AC10" s="3" t="inlineStr">
         <is>
-          <t>AF238466, AF238467, AF238466, AF238467, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, AF238466, AF238467</t>
+          <t>AF212302.2, AF238466.1, AF238467.1, NC_002728.1</t>
         </is>
       </c>
       <c r="AD10" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (52)
-500-1000 (8)
-5000-10000 (8)
-1809 (3)
-1641 (3)</t>
+          <t>500-1000 (2), 1000-3000 (15), 5000-10000 (2)</t>
         </is>
       </c>
       <c r="AE10" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (74)</t>
+          <t>95%-100% (19)</t>
         </is>
       </c>
     </row>
@@ -2022,7 +1995,7 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>Nipah (90)</t>
+          <t>Nipah (30)</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -2031,7 +2004,7 @@
         </is>
       </c>
       <c r="M11" s="3" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N11" s="3" t="inlineStr">
         <is>
@@ -2040,8 +2013,7 @@
       </c>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (63)
-Bat (27)</t>
+          <t>Homo sapiens (21), Bat (9)</t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr">
@@ -2051,8 +2023,7 @@
       </c>
       <c r="Q11" s="3" t="inlineStr">
         <is>
-          <t>NA (63)
-urine (27)</t>
+          <t>NA (21), urine (9)</t>
         </is>
       </c>
       <c r="R11" s="3" t="inlineStr">
@@ -2062,12 +2033,7 @@
       </c>
       <c r="S11" s="3" t="inlineStr">
         <is>
-          <t>2012.0 (27)
-2013.0 (21)
-2015.0 (15)
-2014.0 (15)
-2018.0 (6)
-2017.0 (6)</t>
+          <t>2012 (9), 2013 (7), 2015 (5), 2014 (5), 2018 (2), 2017 (2)</t>
         </is>
       </c>
       <c r="T11" s="3" t="inlineStr">
@@ -2077,7 +2043,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>Bangladesh (90)</t>
+          <t>Bangladesh (30)</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
@@ -2087,7 +2053,7 @@
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t>NA (90)</t>
+          <t>NA (30)</t>
         </is>
       </c>
       <c r="X11" s="3" t="inlineStr">
@@ -2109,18 +2075,17 @@
       </c>
       <c r="AC11" s="3" t="inlineStr">
         <is>
-          <t>MT890702, MT890703, MT890704, MT890705, MT890706, MT890707, MT890708, MT890709, MT890710, MT890711, MT890712, MT890713, MT890714, MT890715, MT890716, MT890717, MT890718, MT890719, MT890720, MT890721, MT890722, MT890723, MT890724, MT890725, MT890726, MT890727, MT890728, MT890729, MT890730, MT890731, MT890702, MT890703, MT890704, MT890705, MT890706, MT890707, MT890708, MT890709, MT890710, MT890711, MT890712, MT890713, MT890714, MT890715, MT890716, MT890717, MT890718, MT890719, MT890720, MT890721, MT890722, MT890723, MT890724, MT890725, MT890726, MT890727, MT890728, MT890729, MT890730, MT890731, MT890702, MT890703, MT890704, MT890705, MT890706, MT890707, MT890708, MT890709, MT890710, MT890711, MT890712, MT890713, MT890714, MT890715, MT890716, MT890717, MT890718, MT890719, MT890720, MT890721, MT890722, MT890723, MT890724, MT890725, MT890726, MT890727, MT890728, MT890729, MT890730, MT890731</t>
+          <t>MT890702.1, MT890703.1, MT890704.1, MT890705.1, MT890706.1, MT890707.1, MT890708.1, MT890709.1, MT890710.1, MT890711.1, MT890712.1, MT890713.1, MT890714.1, MT890715.1, MT890716.1, MT890717.1, MT890718.1, MT890719.1, MT890720.1, MT890721.1, MT890722.1, MT890723.1, MT890724.1, MT890725.1, MT890726.1, MT890727.1, MT890728.1, MT890729.1, MT890730.1, MT890731.1</t>
         </is>
       </c>
       <c r="AD11" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (90)</t>
+          <t>1000-3000 (30)</t>
         </is>
       </c>
       <c r="AE11" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (81)
-95%-100% (9)</t>
+          <t>90%-95% (27), 95%-100% (3)</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2142,7 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>Nipah (67)</t>
+          <t>Nipah (22)</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -2186,7 +2151,7 @@
         </is>
       </c>
       <c r="M12" s="3" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="N12" s="3" t="inlineStr">
         <is>
@@ -2195,7 +2160,7 @@
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t>Bat (67)</t>
+          <t>Bat (22)</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
@@ -2205,7 +2170,7 @@
       </c>
       <c r="Q12" s="3" t="inlineStr">
         <is>
-          <t>urine (67)</t>
+          <t>urine (22)</t>
         </is>
       </c>
       <c r="R12" s="3" t="inlineStr">
@@ -2215,13 +2180,7 @@
       </c>
       <c r="S12" s="3" t="inlineStr">
         <is>
-          <t>2017.0 (16)
-2018.0 (15)
-2020.0 (9)
-2012.0 (9)
-2019.0 (6)
-2016.0 (6)
-2009.0 (6)</t>
+          <t>2017 (5), 2018 (5), 2020 (3), 2012 (3), 2019 (2), 2016 (2), 2009 (2)</t>
         </is>
       </c>
       <c r="T12" s="3" t="inlineStr">
@@ -2231,7 +2190,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>Thailand (67)</t>
+          <t>Thailand (22)</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
@@ -2241,8 +2200,7 @@
       </c>
       <c r="W12" s="3" t="inlineStr">
         <is>
-          <t>NA (63)
-genome (4)</t>
+          <t>NA (21), Other (1)</t>
         </is>
       </c>
       <c r="X12" s="3" t="inlineStr">
@@ -2264,21 +2222,17 @@
       </c>
       <c r="AC12" s="3" t="inlineStr">
         <is>
-          <t>MW535746, MW573860, MW573861, MW573862, MW573863, MW573864, MW573865, MW573866, MW573867, MW573868, MW573869, MW573870, MW573871, MW573872, MW573873, MW573874, MW573875, MW573876, MW573877, MW573878, MW573879, MW573880, MW535746, MW573860, MW573861, MW573862, MW573863, MW573864, MW573865, MW573866, MW573867, MW573868, MW573869, MW573870, MW573871, MW573872, MW573873, MW573874, MW573875, MW573876, MW573877, MW573878, MW573879, MW573880, MW535746, MW535746, MW573860, MW573861, MW573862, MW573863, MW573864, MW573865, MW573866, MW573867, MW573868, MW573869, MW573870, MW573871, MW573872, MW573873, MW573874, MW573875, MW573876, MW573877, MW573878, MW573879, MW573880</t>
+          <t>MW535746.1, MW573860.1, MW573861.1, MW573862.1, MW573863.1, MW573864.1, MW573865.1, MW573866.1, MW573867.1, MW573868.1, MW573869.1, MW573870.1, MW573871.1, MW573872.1, MW573873.1, MW573874.1, MW573875.1, MW573876.1, MW573877.1, MW573878.1, MW573879.1, MW573880.1</t>
         </is>
       </c>
       <c r="AD12" s="3" t="inlineStr">
         <is>
-          <t>100-500 (63)
-1000-3000 (28)
-500-1000 (4)
-5000-10000 (4)</t>
+          <t>100-500 (21), 500-1000 (1), 1000-3000 (7), 5000-10000 (1)</t>
         </is>
       </c>
       <c r="AE12" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (95)
-95%-100% (4)</t>
+          <t>90%-95% (29), 95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2289,7 @@
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>Nipah (27)</t>
+          <t>Nipah (9)</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
@@ -2344,7 +2298,7 @@
         </is>
       </c>
       <c r="M13" s="3" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N13" s="3" t="inlineStr">
         <is>
@@ -2353,7 +2307,7 @@
       </c>
       <c r="O13" s="3" t="inlineStr">
         <is>
-          <t>Bat (27)</t>
+          <t>Bat (9)</t>
         </is>
       </c>
       <c r="P13" s="3" t="inlineStr">
@@ -2363,7 +2317,7 @@
       </c>
       <c r="Q13" s="3" t="inlineStr">
         <is>
-          <t>urine (27)</t>
+          <t>urine (9)</t>
         </is>
       </c>
       <c r="R13" s="3" t="inlineStr">
@@ -2373,7 +2327,7 @@
       </c>
       <c r="S13" s="3" t="inlineStr">
         <is>
-          <t>NA (27)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="T13" s="3" t="inlineStr">
@@ -2383,7 +2337,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>Thailand (27)</t>
+          <t>Thailand (9)</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
@@ -2393,7 +2347,7 @@
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>NA (27)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="X13" s="3" t="inlineStr">
@@ -2416,18 +2370,17 @@
       </c>
       <c r="AC13" s="3" t="inlineStr">
         <is>
-          <t>EF070182, EF070183, EF070184, EF070185, EF070186, EF070187, EF070188, EF070189, EF070190, EF070182, EF070183, EF070184, EF070185, EF070186, EF070187, EF070188, EF070189, EF070190, EF070182, EF070183, EF070184, EF070185, EF070186, EF070187, EF070188, EF070189, EF070190</t>
+          <t>EF070182.1, EF070183.1, EF070184.1, EF070185.1, EF070186.1, EF070187.1, EF070188.1, EF070189.1, EF070190.1</t>
         </is>
       </c>
       <c r="AD13" s="3" t="inlineStr">
         <is>
-          <t>357 (27)</t>
+          <t>357 (9)</t>
         </is>
       </c>
       <c r="AE13" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (24)
-95%-100% (3)</t>
+          <t>90%-95% (8), 95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2437,7 @@
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>Nipah (33)</t>
+          <t>Nipah (11)</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
@@ -2493,7 +2446,7 @@
         </is>
       </c>
       <c r="M14" s="3" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="N14" s="3" t="inlineStr">
         <is>
@@ -2502,7 +2455,7 @@
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>Bat (33)</t>
+          <t>Bat (11)</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
@@ -2512,7 +2465,7 @@
       </c>
       <c r="Q14" s="3" t="inlineStr">
         <is>
-          <t>urine (33)</t>
+          <t>urine (11)</t>
         </is>
       </c>
       <c r="R14" s="3" t="inlineStr">
@@ -2522,8 +2475,7 @@
       </c>
       <c r="S14" s="3" t="inlineStr">
         <is>
-          <t>2010.0 (18)
-2011.0 (15)</t>
+          <t>2010 (6), 2011 (5)</t>
         </is>
       </c>
       <c r="T14" s="3" t="inlineStr">
@@ -2533,7 +2485,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>Thailand (33)</t>
+          <t>Thailand (11)</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -2543,7 +2495,7 @@
       </c>
       <c r="W14" s="3" t="inlineStr">
         <is>
-          <t>NA (33)</t>
+          <t>NA (11)</t>
         </is>
       </c>
       <c r="X14" s="3" t="inlineStr">
@@ -2562,19 +2514,17 @@
       </c>
       <c r="AC14" s="3" t="inlineStr">
         <is>
-          <t>KT163247, KT163248, KT163249, KT163250, KT163251, KT163252, KT163253, KT163254, KT163255, KT163256, KT163257, KT163247, KT163248, KT163249, KT163250, KT163251, KT163252, KT163253, KT163254, KT163255, KT163256, KT163257, KT163247, KT163248, KT163249, KT163250, KT163251, KT163252, KT163253, KT163254, KT163255, KT163256, KT163257</t>
+          <t>KT163247.1, KT163248.1, KT163249.1, KT163250.1, KT163251.1, KT163252.1, KT163253.1, KT163254.1, KT163255.1, KT163256.1, KT163257.1</t>
         </is>
       </c>
       <c r="AD14" s="3" t="inlineStr">
         <is>
-          <t>1599 (30)
-357 (3)</t>
+          <t>1599 (10), 357 (1)</t>
         </is>
       </c>
       <c r="AE14" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (18)
-95%-100% (15)</t>
+          <t>90%-95% (6), 95%-100% (5)</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2581,7 @@
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>Nipah (12)</t>
+          <t>Nipah (4)</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
@@ -2640,7 +2590,7 @@
         </is>
       </c>
       <c r="M15" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N15" s="3" t="inlineStr">
         <is>
@@ -2649,7 +2599,7 @@
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>Bat (12)</t>
+          <t>Bat (4)</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
@@ -2659,7 +2609,7 @@
       </c>
       <c r="Q15" s="3" t="inlineStr">
         <is>
-          <t>NA (12)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="R15" s="3" t="inlineStr">
@@ -2669,7 +2619,7 @@
       </c>
       <c r="S15" s="3" t="inlineStr">
         <is>
-          <t>2010.0 (12)</t>
+          <t>2010 (4)</t>
         </is>
       </c>
       <c r="T15" s="3" t="inlineStr">
@@ -2679,7 +2629,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>India (12)</t>
+          <t>India (4)</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
@@ -2689,7 +2639,7 @@
       </c>
       <c r="W15" s="3" t="inlineStr">
         <is>
-          <t>NA (12)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="X15" s="3" t="inlineStr">
@@ -2711,21 +2661,17 @@
       </c>
       <c r="AC15" s="3" t="inlineStr">
         <is>
-          <t>JF899339, JF899340, JF899341, JF899342, JF899339, JF899340, JF899341, JF899342, JF899339, JF899340, JF899341, JF899342</t>
+          <t>JF899339.1, JF899340.1, JF899341.1, JF899342.1</t>
         </is>
       </c>
       <c r="AD15" s="3" t="inlineStr">
         <is>
-          <t>545 (3)
-159 (3)
-954 (3)
-204 (3)</t>
+          <t>545 (1), 159 (1), 954 (1), 204 (1)</t>
         </is>
       </c>
       <c r="AE15" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (9)
-95%-100% (3)</t>
+          <t>90%-95% (3), 95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2766,7 @@
       </c>
       <c r="S16" s="3" t="inlineStr">
         <is>
-          <t>2013.0 (11)</t>
+          <t>2013 (11)</t>
         </is>
       </c>
       <c r="T16" s="3" t="inlineStr">
@@ -2840,7 +2786,7 @@
       </c>
       <c r="W16" s="3" t="inlineStr">
         <is>
-          <t>genome (11)</t>
+          <t>Other (11)</t>
         </is>
       </c>
       <c r="X16" s="3" t="inlineStr">
@@ -2858,13 +2804,12 @@
       <c r="AB16" s="3" t="inlineStr"/>
       <c r="AC16" s="3" t="inlineStr">
         <is>
-          <t>MK575060, MK575061, MK575062, MK575063, MK575064, MK575065, MK575066, MK575067, MK575068, MK575069, MK575070</t>
+          <t>MK575060.1, MK575061.1, MK575062.1, MK575063.1, MK575064.1, MK575065.1, MK575066.1, MK575067.1, MK575068.1, MK575069.1, MK575070.1</t>
         </is>
       </c>
       <c r="AD16" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (54)
-5000-10000 (10)</t>
+          <t>1000-3000 (54), 5000-10000 (10)</t>
         </is>
       </c>
       <c r="AE16" s="3" t="inlineStr">
@@ -2926,7 +2871,7 @@
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>Nipah (8)</t>
+          <t>Nipah (4)</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
@@ -2935,7 +2880,7 @@
         </is>
       </c>
       <c r="M17" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N17" s="3" t="inlineStr">
         <is>
@@ -2944,7 +2889,7 @@
       </c>
       <c r="O17" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (8)</t>
+          <t>Homo sapiens (4)</t>
         </is>
       </c>
       <c r="P17" s="3" t="inlineStr">
@@ -2954,10 +2899,7 @@
       </c>
       <c r="Q17" s="3" t="inlineStr">
         <is>
-          <t>urine (2)
-brain (2)
-csf (2)
-lung (2)</t>
+          <t>urine (1), brain (1), csf (1), lung (1)</t>
         </is>
       </c>
       <c r="R17" s="3" t="inlineStr">
@@ -2967,7 +2909,7 @@
       </c>
       <c r="S17" s="3" t="inlineStr">
         <is>
-          <t>2007.0 (8)</t>
+          <t>2007 (4)</t>
         </is>
       </c>
       <c r="T17" s="3" t="inlineStr">
@@ -2977,7 +2919,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>India (8)</t>
+          <t>India (4)</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
@@ -2987,8 +2929,7 @@
       </c>
       <c r="W17" s="3" t="inlineStr">
         <is>
-          <t>NA (6)
-genome (2)</t>
+          <t>NA (3), Other (1)</t>
         </is>
       </c>
       <c r="X17" s="3" t="inlineStr">
@@ -3010,20 +2951,17 @@
       </c>
       <c r="AC17" s="3" t="inlineStr">
         <is>
-          <t>FJ513078, FJ513079, FJ513080, FJ513081, FJ513078, FJ513079, FJ513080, FJ513081</t>
+          <t>FJ513078.1, FJ513079.1, FJ513080.1, FJ513081.1</t>
         </is>
       </c>
       <c r="AD17" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (10)
-100-500 (6)
-5000-10000 (2)</t>
+          <t>100-500 (3), 1000-3000 (5), 5000-10000 (1)</t>
         </is>
       </c>
       <c r="AE17" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (12)
-95%-100% (6)</t>
+          <t>90%-95% (6), 95%-100% (3)</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3018,7 @@
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>Nipah (12)</t>
+          <t>Nipah (6)</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
@@ -3089,7 +3027,7 @@
         </is>
       </c>
       <c r="M18" s="3" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N18" s="3" t="inlineStr">
         <is>
@@ -3098,7 +3036,7 @@
       </c>
       <c r="O18" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (12)</t>
+          <t>Homo sapiens (6)</t>
         </is>
       </c>
       <c r="P18" s="3" t="inlineStr">
@@ -3108,7 +3046,7 @@
       </c>
       <c r="Q18" s="3" t="inlineStr">
         <is>
-          <t>throat swab (12)</t>
+          <t>throat swab (6)</t>
         </is>
       </c>
       <c r="R18" s="3" t="inlineStr">
@@ -3118,13 +3056,13 @@
       </c>
       <c r="S18" s="3" t="inlineStr">
         <is>
-          <t>2018.0 (12)</t>
+          <t>2018 (6)</t>
         </is>
       </c>
       <c r="T18" s="3" t="inlineStr"/>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>India (12)</t>
+          <t>India (6)</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -3134,7 +3072,7 @@
       </c>
       <c r="W18" s="3" t="inlineStr">
         <is>
-          <t>NA (12)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="X18" s="3" t="inlineStr">
@@ -3152,20 +3090,17 @@
       </c>
       <c r="AC18" s="3" t="inlineStr">
         <is>
-          <t>MH891773, MH891774, MH891775, MH891776, MH891777, MH891778, MH891773, MH891774, MH891775, MH891776, MH891777, MH891778</t>
+          <t>MH891773.1, MH891774.1, MH891775.1, MH891776.1, MH891777.1, MH891778.1</t>
         </is>
       </c>
       <c r="AD18" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (10)
-100-500 (2)
-500-1000 (2)</t>
+          <t>100-500 (1), 500-1000 (1), 1000-3000 (5)</t>
         </is>
       </c>
       <c r="AE18" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (10)
-95%-100% (4)</t>
+          <t>90%-95% (5), 95%-100% (2)</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3157,7 @@
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>Nipah (5)</t>
+          <t>Nipah (4)</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr">
@@ -3231,7 +3166,7 @@
         </is>
       </c>
       <c r="M19" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" s="3" t="inlineStr">
         <is>
@@ -3240,9 +3175,7 @@
       </c>
       <c r="O19" s="3" t="inlineStr">
         <is>
-          <t>Bat (2)
-NA (2)
-Homo sapiens (1)</t>
+          <t>NA (2), Bat (1), Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P19" s="3" t="inlineStr">
@@ -3252,7 +3185,7 @@
       </c>
       <c r="Q19" s="3" t="inlineStr">
         <is>
-          <t>NA (5)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="R19" s="3" t="inlineStr">
@@ -3262,9 +3195,7 @@
       </c>
       <c r="S19" s="3" t="inlineStr">
         <is>
-          <t>2003.0 (2)
-NA (2)
-2004.0 (1)</t>
+          <t>NA (2), 2003 (1), 2004 (1)</t>
         </is>
       </c>
       <c r="T19" s="3" t="inlineStr">
@@ -3274,9 +3205,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>Cambodia (2)
-Malaysia (2)
-Bangladesh (1)</t>
+          <t>Malaysia (2), Cambodia (1), Bangladesh (1)</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -3286,7 +3215,7 @@
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>genome (5)</t>
+          <t>Other (4)</t>
         </is>
       </c>
       <c r="X19" s="3" t="inlineStr">
@@ -3306,20 +3235,17 @@
       </c>
       <c r="AC19" s="3" t="inlineStr">
         <is>
-          <t>MK801755, AY029767, AY029768, MK801755, AY988601</t>
+          <t>AY029767.1, AY029768.1, AY988601.1, MK801755.1</t>
         </is>
       </c>
       <c r="AD19" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (29)
-5000-10000 (5)
-500-1000 (3)</t>
+          <t>500-1000 (3), 1000-3000 (24), 5000-10000 (4)</t>
         </is>
       </c>
       <c r="AE19" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (29)
-90%-95% (8)</t>
+          <t>90%-95% (8), 95%-100% (23)</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3302,7 @@
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
@@ -3385,7 +3311,7 @@
         </is>
       </c>
       <c r="M20" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3" t="inlineStr">
         <is>
@@ -3394,7 +3320,7 @@
       </c>
       <c r="O20" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (2)</t>
+          <t>Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P20" s="3" t="inlineStr">
@@ -3404,7 +3330,7 @@
       </c>
       <c r="Q20" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R20" s="3" t="inlineStr">
@@ -3414,7 +3340,7 @@
       </c>
       <c r="S20" s="3" t="inlineStr">
         <is>
-          <t>2004.0 (2)</t>
+          <t>2004 (1)</t>
         </is>
       </c>
       <c r="T20" s="3" t="inlineStr">
@@ -3424,7 +3350,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>Bangladesh (2)</t>
+          <t>Bangladesh (1)</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
@@ -3434,7 +3360,7 @@
       </c>
       <c r="W20" s="3" t="inlineStr">
         <is>
-          <t>genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X20" s="3" t="inlineStr">
@@ -3456,20 +3382,17 @@
       </c>
       <c r="AC20" s="3" t="inlineStr">
         <is>
-          <t>AY988601, AY988601</t>
+          <t>AY988601.1</t>
         </is>
       </c>
       <c r="AD20" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (14)
-500-1000 (2)
-5000-10000 (2)</t>
+          <t>500-1000 (1), 1000-3000 (7), 5000-10000 (1)</t>
         </is>
       </c>
       <c r="AE20" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (16)
-95%-100% (2)</t>
+          <t>90%-95% (8), 95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3449,7 @@
       </c>
       <c r="K21" s="3" t="inlineStr">
         <is>
-          <t>Nipah (16)</t>
+          <t>Nipah (8)</t>
         </is>
       </c>
       <c r="L21" s="3" t="inlineStr">
@@ -3535,7 +3458,7 @@
         </is>
       </c>
       <c r="M21" s="3" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N21" s="3" t="inlineStr">
         <is>
@@ -3544,7 +3467,7 @@
       </c>
       <c r="O21" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (16)</t>
+          <t>Homo sapiens (8)</t>
         </is>
       </c>
       <c r="P21" s="3" t="inlineStr">
@@ -3554,7 +3477,7 @@
       </c>
       <c r="Q21" s="3" t="inlineStr">
         <is>
-          <t>throat swab (16)</t>
+          <t>throat swab (8)</t>
         </is>
       </c>
       <c r="R21" s="3" t="inlineStr">
@@ -3564,9 +3487,7 @@
       </c>
       <c r="S21" s="3" t="inlineStr">
         <is>
-          <t>2010.0 (6)
-2004.0 (6)
-2008.0 (4)</t>
+          <t>2010 (3), 2004 (3), 2008 (2)</t>
         </is>
       </c>
       <c r="T21" s="3" t="inlineStr">
@@ -3576,7 +3497,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>Bangladesh (16)</t>
+          <t>Bangladesh (8)</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
@@ -3586,8 +3507,7 @@
       </c>
       <c r="W21" s="3" t="inlineStr">
         <is>
-          <t>NA (10)
-genome (6)</t>
+          <t>NA (5), Other (3)</t>
         </is>
       </c>
       <c r="X21" s="3" t="inlineStr">
@@ -3610,20 +3530,17 @@
       </c>
       <c r="AC21" s="3" t="inlineStr">
         <is>
-          <t>JN808857, JN808858, JN808859, JN808860, JN808861, JN808862, JN808863, JN808864, JN808857, JN808858, JN808859, JN808860, JN808861, JN808862, JN808863, JN808864</t>
+          <t>JN808857.1, JN808858.1, JN808859.1, JN808860.1, JN808861.1, JN808862.1, JN808863.1, JN808864.1</t>
         </is>
       </c>
       <c r="AD21" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (52)
-500-1000 (6)
-5000-10000 (6)</t>
+          <t>500-1000 (3), 1000-3000 (26), 5000-10000 (3)</t>
         </is>
       </c>
       <c r="AE21" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (58)
-95%-100% (6)</t>
+          <t>90%-95% (29), 95%-100% (3)</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3597,7 @@
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>Nipah (4)</t>
+          <t>Nipah (2)</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
@@ -3689,7 +3606,7 @@
         </is>
       </c>
       <c r="M22" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" s="3" t="inlineStr">
         <is>
@@ -3698,7 +3615,7 @@
       </c>
       <c r="O22" s="3" t="inlineStr">
         <is>
-          <t>Bat (4)</t>
+          <t>Bat (2)</t>
         </is>
       </c>
       <c r="P22" s="3" t="inlineStr">
@@ -3708,7 +3625,7 @@
       </c>
       <c r="Q22" s="3" t="inlineStr">
         <is>
-          <t>urine (4)</t>
+          <t>urine (2)</t>
         </is>
       </c>
       <c r="R22" s="3" t="inlineStr">
@@ -3718,7 +3635,7 @@
       </c>
       <c r="S22" s="3" t="inlineStr">
         <is>
-          <t>NA (4)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="T22" s="3" t="inlineStr">
@@ -3728,7 +3645,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>Cambodia (4)</t>
+          <t>Cambodia (2)</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
@@ -3738,7 +3655,7 @@
       </c>
       <c r="W22" s="3" t="inlineStr">
         <is>
-          <t>NA (4)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X22" s="3" t="inlineStr">
@@ -3757,18 +3674,17 @@
       </c>
       <c r="AC22" s="3" t="inlineStr">
         <is>
-          <t>AY858110, AY858111, AY858110, AY858111</t>
+          <t>AY858110.1, AY858111.1</t>
         </is>
       </c>
       <c r="AD22" s="3" t="inlineStr">
         <is>
-          <t>1809 (2)
-1599 (2)</t>
+          <t>1809 (1), 1599 (1)</t>
         </is>
       </c>
       <c r="AE22" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (4)</t>
+          <t>95%-100% (2)</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3741,7 @@
       </c>
       <c r="K23" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L23" s="3" t="inlineStr">
@@ -3834,7 +3750,7 @@
         </is>
       </c>
       <c r="M23" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="inlineStr">
         <is>
@@ -3843,7 +3759,7 @@
       </c>
       <c r="O23" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (2)</t>
+          <t>Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P23" s="3" t="inlineStr">
@@ -3853,7 +3769,7 @@
       </c>
       <c r="Q23" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R23" s="3" t="inlineStr">
@@ -3863,7 +3779,7 @@
       </c>
       <c r="S23" s="3" t="inlineStr">
         <is>
-          <t>2021.0 (2)</t>
+          <t>2021 (1)</t>
         </is>
       </c>
       <c r="T23" s="3" t="inlineStr">
@@ -3873,7 +3789,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>India (2)</t>
+          <t>India (1)</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
@@ -3883,7 +3799,7 @@
       </c>
       <c r="W23" s="3" t="inlineStr">
         <is>
-          <t>genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X23" s="3" t="inlineStr">
@@ -3905,21 +3821,17 @@
       </c>
       <c r="AC23" s="3" t="inlineStr">
         <is>
-          <t>OM135495, OM135495</t>
+          <t>OM135495.1</t>
         </is>
       </c>
       <c r="AD23" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (14)
-500-1000 (2)
-5000-10000 (2)</t>
+          <t>500-1000 (1), 1000-3000 (7), 5000-10000 (1)</t>
         </is>
       </c>
       <c r="AE23" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (14)
-75%-90% (2)
-95%-100% (2)</t>
+          <t>75%-90% (1), 90%-95% (7), 95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3888,7 @@
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>Nipah (9)</t>
+          <t>Nipah (3)</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
@@ -3985,7 +3897,7 @@
         </is>
       </c>
       <c r="M24" s="3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N24" s="3" t="inlineStr">
         <is>
@@ -3994,8 +3906,7 @@
       </c>
       <c r="O24" s="3" t="inlineStr">
         <is>
-          <t>NA (8)
-Homo sapiens (1)</t>
+          <t>NA (2), Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P24" s="3" t="inlineStr">
@@ -4005,14 +3916,13 @@
       </c>
       <c r="Q24" s="3" t="inlineStr">
         <is>
-          <t>NA (9)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="R24" s="3" t="inlineStr"/>
       <c r="S24" s="3" t="inlineStr">
         <is>
-          <t>NA (8)
-2004.0 (1)</t>
+          <t>NA (2), 2004 (1)</t>
         </is>
       </c>
       <c r="T24" s="3" t="inlineStr">
@@ -4022,8 +3932,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>NA (8)
-Bangladesh (1)</t>
+          <t>NA (2), Bangladesh (1)</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
@@ -4033,7 +3942,7 @@
       </c>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t>genome (9)</t>
+          <t>Other (3)</t>
         </is>
       </c>
       <c r="X24" s="3" t="inlineStr">
@@ -4056,20 +3965,17 @@
       </c>
       <c r="AC24" s="3" t="inlineStr">
         <is>
-          <t>NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, NC_002728, AF212302, AY988601</t>
+          <t>AF212302.2, AY988601.1, NC_002728.1</t>
         </is>
       </c>
       <c r="AD24" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (59)
-500-1000 (9)
-5000-10000 (9)</t>
+          <t>500-1000 (3), 1000-3000 (20), 5000-10000 (3)</t>
         </is>
       </c>
       <c r="AE24" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (69)
-90%-95% (8)</t>
+          <t>90%-95% (8), 95%-100% (18)</t>
         </is>
       </c>
     </row>
@@ -4144,8 +4050,7 @@
       </c>
       <c r="O25" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (12)
-Bat (7)</t>
+          <t>Homo sapiens (12), Bat (7)</t>
         </is>
       </c>
       <c r="P25" s="3" t="inlineStr">
@@ -4155,10 +4060,7 @@
       </c>
       <c r="Q25" s="3" t="inlineStr">
         <is>
-          <t>NA (9)
-spleen (5)
-oropharyngeal swab (3)
-kidney (2)</t>
+          <t>NA (9), spleen (5), oropharyngeal swab (3), kidney (2)</t>
         </is>
       </c>
       <c r="R25" s="3" t="inlineStr">
@@ -4168,7 +4070,7 @@
       </c>
       <c r="S25" s="3" t="inlineStr">
         <is>
-          <t>2023.0 (19)</t>
+          <t>2023 (19)</t>
         </is>
       </c>
       <c r="T25" s="3" t="inlineStr">
@@ -4188,9 +4090,7 @@
       </c>
       <c r="W25" s="3" t="inlineStr">
         <is>
-          <t>NA (15)
-genome (3)
-Partial L gene (1)</t>
+          <t>NA (15), Other (4)</t>
         </is>
       </c>
       <c r="X25" s="3" t="inlineStr">
@@ -4209,22 +4109,17 @@
       </c>
       <c r="AC25" s="3" t="inlineStr">
         <is>
-          <t>OR765965, OR765964, OR765963, OR765962, OR765961, OR765960, OR765959, OR838354, OR838353, OR838352, OR838351, OR838350, OR838349, OR838348, OR838347, OR828430, OR820508, OR820507, OR820506</t>
+          <t>OR765959.1, OR765960.1, OR765961.1, OR765962.1, OR765963.1, OR765964.1, OR765965.1, OR820506.1, OR820507.1, OR820508.1, OR828430.1, OR838347.1, OR838348.1, OR838349.1, OR838350.1, OR838351.1, OR838352.1, OR838353.1, OR838354.1</t>
         </is>
       </c>
       <c r="AD25" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (21)
-100-500 (16)
-500-1000 (3)
-5000-10000 (3)</t>
+          <t>100-500 (16), 500-1000 (3), 1000-3000 (21), 5000-10000 (3)</t>
         </is>
       </c>
       <c r="AE25" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (34)
-95%-100% (5)
-75%-90% (4)</t>
+          <t>75%-90% (4), 90%-95% (34), 95%-100% (5)</t>
         </is>
       </c>
     </row>
@@ -4299,8 +4194,7 @@
       </c>
       <c r="O26" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (12)
-Bat (7)</t>
+          <t>Homo sapiens (12), Bat (7)</t>
         </is>
       </c>
       <c r="P26" s="3" t="inlineStr">
@@ -4310,10 +4204,7 @@
       </c>
       <c r="Q26" s="3" t="inlineStr">
         <is>
-          <t>NA (9)
-spleen (5)
-oropharyngeal swab (3)
-kidney (2)</t>
+          <t>NA (9), spleen (5), oropharyngeal swab (3), kidney (2)</t>
         </is>
       </c>
       <c r="R26" s="3" t="inlineStr">
@@ -4323,7 +4214,7 @@
       </c>
       <c r="S26" s="3" t="inlineStr">
         <is>
-          <t>2023.0 (19)</t>
+          <t>2023 (19)</t>
         </is>
       </c>
       <c r="T26" s="3" t="inlineStr">
@@ -4343,9 +4234,7 @@
       </c>
       <c r="W26" s="3" t="inlineStr">
         <is>
-          <t>NA (15)
-genome (3)
-Partial L gene (1)</t>
+          <t>NA (15), Other (4)</t>
         </is>
       </c>
       <c r="X26" s="3" t="inlineStr">
@@ -4367,22 +4256,17 @@
       </c>
       <c r="AC26" s="3" t="inlineStr">
         <is>
-          <t>OR765965, OR765964, OR765963, OR765962, OR765961, OR765960, OR765959, OR838354, OR838353, OR838352, OR838351, OR838350, OR838349, OR838348, OR838347, OR828430, OR820508, OR820507, OR820506</t>
+          <t>OR765959.1, OR765960.1, OR765961.1, OR765962.1, OR765963.1, OR765964.1, OR765965.1, OR820506.1, OR820507.1, OR820508.1, OR828430.1, OR838347.1, OR838348.1, OR838349.1, OR838350.1, OR838351.1, OR838352.1, OR838353.1, OR838354.1</t>
         </is>
       </c>
       <c r="AD26" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (21)
-100-500 (16)
-500-1000 (3)
-5000-10000 (3)</t>
+          <t>100-500 (16), 500-1000 (3), 1000-3000 (21), 5000-10000 (3)</t>
         </is>
       </c>
       <c r="AE26" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (34)
-95%-100% (5)
-75%-90% (4)</t>
+          <t>75%-90% (4), 90%-95% (34), 95%-100% (5)</t>
         </is>
       </c>
     </row>
@@ -4457,8 +4341,7 @@
       </c>
       <c r="O27" s="3" t="inlineStr">
         <is>
-          <t>NA (2)
-Homo sapiens (1)</t>
+          <t>NA (2), Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P27" s="3" t="inlineStr">
@@ -4474,8 +4357,7 @@
       <c r="R27" s="3" t="inlineStr"/>
       <c r="S27" s="3" t="inlineStr">
         <is>
-          <t>NA (2)
-2004.0 (1)</t>
+          <t>NA (2), 2004 (1)</t>
         </is>
       </c>
       <c r="T27" s="3" t="inlineStr">
@@ -4485,8 +4367,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>Malaysia (2)
-Bangladesh (1)</t>
+          <t>Malaysia (2), Bangladesh (1)</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
@@ -4496,7 +4377,7 @@
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>genome (3)</t>
+          <t>Other (3)</t>
         </is>
       </c>
       <c r="X27" s="3" t="inlineStr">
@@ -4519,20 +4400,17 @@
       </c>
       <c r="AC27" s="3" t="inlineStr">
         <is>
-          <t>AY029767, AY029768, AY988601</t>
+          <t>AY029767.1, AY029768.1, AY988601.1</t>
         </is>
       </c>
       <c r="AD27" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (19)
-500-1000 (3)
-5000-10000 (3)</t>
+          <t>500-1000 (3), 1000-3000 (19), 5000-10000 (3)</t>
         </is>
       </c>
       <c r="AE27" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (17)
-90%-95% (8)</t>
+          <t>90%-95% (8), 95%-100% (17)</t>
         </is>
       </c>
     </row>
@@ -4589,7 +4467,7 @@
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>Nipah (38)</t>
+          <t>Nipah (19)</t>
         </is>
       </c>
       <c r="L28" s="3" t="inlineStr">
@@ -4598,7 +4476,7 @@
         </is>
       </c>
       <c r="M28" s="3" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N28" s="3" t="inlineStr">
         <is>
@@ -4607,7 +4485,7 @@
       </c>
       <c r="O28" s="3" t="inlineStr">
         <is>
-          <t>Bat (38)</t>
+          <t>Bat (19)</t>
         </is>
       </c>
       <c r="P28" s="3" t="inlineStr">
@@ -4617,7 +4495,7 @@
       </c>
       <c r="Q28" s="3" t="inlineStr">
         <is>
-          <t>NA (38)</t>
+          <t>NA (19)</t>
         </is>
       </c>
       <c r="R28" s="3" t="inlineStr">
@@ -4627,7 +4505,7 @@
       </c>
       <c r="S28" s="3" t="inlineStr">
         <is>
-          <t>NA (38)</t>
+          <t>NA (19)</t>
         </is>
       </c>
       <c r="T28" s="3" t="inlineStr">
@@ -4637,7 +4515,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>Bangladesh (38)</t>
+          <t>Bangladesh (19)</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
@@ -4647,7 +4525,7 @@
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>NA (38)</t>
+          <t>NA (19)</t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr">
@@ -4669,21 +4547,17 @@
       </c>
       <c r="AC28" s="3" t="inlineStr">
         <is>
-          <t>MK995284, MK995285, MK995286, MK995287, MK995288, MK995289, MK995290, MK995291, MK995292, MK995293, MK995294, MK995295, MK995296, MK995297, MK995298, MK995299, MK995300, MK995301, MK995302, MK995284, MK995285, MK995286, MK995287, MK995288, MK995289, MK995290, MK995291, MK995292, MK995293, MK995294, MK995295, MK995296, MK995297, MK995298, MK995299, MK995300, MK995301, MK995302</t>
+          <t>MK995284.1, MK995285.1, MK995286.1, MK995287.1, MK995288.1, MK995289.1, MK995290.1, MK995291.1, MK995292.1, MK995293.1, MK995294.1, MK995295.1, MK995296.1, MK995297.1, MK995298.1, MK995299.1, MK995300.1, MK995301.1, MK995302.1</t>
         </is>
       </c>
       <c r="AD28" s="3" t="inlineStr">
         <is>
-          <t>224 (26)
-222 (8)
-229 (4)</t>
+          <t>224 (13), 222 (4), 229 (2)</t>
         </is>
       </c>
       <c r="AE28" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (26)
-95%-100% (8)
-75%-90% (4)</t>
+          <t>75%-90% (2), 90%-95% (13), 95%-100% (4)</t>
         </is>
       </c>
     </row>
@@ -4768,9 +4642,7 @@
       </c>
       <c r="Q29" s="3" t="inlineStr">
         <is>
-          <t>urine (3)
-oropharyngeal swab (1)
-NA (1)</t>
+          <t>urine (3), oropharyngeal swab (1), NA (1)</t>
         </is>
       </c>
       <c r="R29" s="3" t="inlineStr">
@@ -4780,7 +4652,7 @@
       </c>
       <c r="S29" s="3" t="inlineStr">
         <is>
-          <t>2009.0 (5)</t>
+          <t>2009 (5)</t>
         </is>
       </c>
       <c r="T29" s="3" t="inlineStr">
@@ -4818,7 +4690,7 @@
       </c>
       <c r="AC29" s="3" t="inlineStr">
         <is>
-          <t>KC903168, KC903169, KC903170, KC903171, KC903172</t>
+          <t>KC903168.1, KC903169.1, KC903170.1, KC903171.1, KC903172.1</t>
         </is>
       </c>
       <c r="AD29" s="3" t="inlineStr">
@@ -4903,9 +4775,7 @@
       </c>
       <c r="O30" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (29)
-Pig (4)
-Dog (1)</t>
+          <t>Homo sapiens (29), Pig (4), Dog (1)</t>
         </is>
       </c>
       <c r="P30" s="3" t="inlineStr">
@@ -4915,11 +4785,7 @@
       </c>
       <c r="Q30" s="3" t="inlineStr">
         <is>
-          <t>throat swab (24)
-NA (6)
-blood (2)
-urine (1)
-csf (1)</t>
+          <t>throat swab (24), NA (6), blood (2), urine (1), csf (1)</t>
         </is>
       </c>
       <c r="R30" s="3" t="inlineStr">
@@ -4929,14 +4795,7 @@
       </c>
       <c r="S30" s="3" t="inlineStr">
         <is>
-          <t>2011.0 (9)
-1999.0 (6)
-2015.0 (5)
-2014.0 (4)
-2012.0 (4)
-2004.0 (4)
-2013.0 (1)
-2008.0 (1)</t>
+          <t>2011 (9), 1999 (6), 2015 (5), 2014 (4), 2012 (4), 2004 (4), 2013 (1), 2008 (1)</t>
         </is>
       </c>
       <c r="T30" s="3" t="inlineStr">
@@ -4946,8 +4805,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>Bangladesh (28)
-Malaysia (6)</t>
+          <t>Bangladesh (28), Malaysia (6)</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
@@ -4957,7 +4815,7 @@
       </c>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t>genome (34)</t>
+          <t>Other (34)</t>
         </is>
       </c>
       <c r="X30" s="3" t="inlineStr">
@@ -4979,22 +4837,17 @@
       </c>
       <c r="AC30" s="3" t="inlineStr">
         <is>
-          <t>MK673558, MK673559, MK673560, MK673561, MK673562, MK673563, MK673564, MK673565, MK673566, MK673567, MK673568, MK673570, MK673571, MK673572, MK673573, MK673574, MK673575, MK673576, MK673577, MK673578, MK673579, MK673580, MK673581, MK673582, MK673583, MK673584, MK673585, MK673586, MK673587, MK673588, MK673589, MK673590, MK673591, MK673592</t>
+          <t>MK673558.1, MK673559.1, MK673560.1, MK673561.1, MK673562.1, MK673563.1, MK673564.1, MK673565.1, MK673566.1, MK673567.1, MK673568.1, MK673570.1, MK673571.1, MK673572.1, MK673573.1, MK673574.1, MK673575.1, MK673576.1, MK673577.1, MK673578.1, MK673579.1, MK673580.1, MK673581.1, MK673582.1, MK673583.1, MK673584.1, MK673585.1, MK673586.1, MK673587.1, MK673588.1, MK673589.1, MK673590.1, MK673591.1, MK673592.1</t>
         </is>
       </c>
       <c r="AD30" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (238)
-5000-10000 (34)
-500-1000 (33)
-100-500 (1)</t>
+          <t>100-500 (1), 500-1000 (33), 1000-3000 (238), 5000-10000 (34)</t>
         </is>
       </c>
       <c r="AE30" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (222)
-95%-100% (83)
-75%-90% (1)</t>
+          <t>75%-90% (1), 90%-95% (222), 95%-100% (83)</t>
         </is>
       </c>
     </row>
@@ -5051,7 +4904,7 @@
       </c>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t>Nipah (98)</t>
+          <t>Nipah (30)</t>
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
@@ -5060,7 +4913,7 @@
         </is>
       </c>
       <c r="M31" s="3" t="n">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="N31" s="3" t="inlineStr">
         <is>
@@ -5069,8 +4922,7 @@
       </c>
       <c r="O31" s="3" t="inlineStr">
         <is>
-          <t>Bat (72)
-Homo sapiens (26)</t>
+          <t>Bat (23), Homo sapiens (7)</t>
         </is>
       </c>
       <c r="P31" s="3" t="inlineStr">
@@ -5080,14 +4932,7 @@
       </c>
       <c r="Q31" s="3" t="inlineStr">
         <is>
-          <t>liver and spleen (36)
-throat swab (22)
-intestine (22)
-lung (8)
-heart (4)
-NA (2)
-brain (2)
-kidney (2)</t>
+          <t>liver and spleen (10), intestine (6), throat swab (6), lung (3), heart (2), NA (1), brain (1), kidney (1)</t>
         </is>
       </c>
       <c r="R31" s="3" t="inlineStr">
@@ -5097,8 +4942,7 @@
       </c>
       <c r="S31" s="3" t="inlineStr">
         <is>
-          <t>2018.0 (78)
-2019.0 (20)</t>
+          <t>2018 (20), 2019 (10)</t>
         </is>
       </c>
       <c r="T31" s="3" t="inlineStr">
@@ -5108,7 +4952,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>India (98)</t>
+          <t>India (30)</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
@@ -5118,8 +4962,7 @@
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>NA (54)
-genome (44)</t>
+          <t>Other (16), NA (14)</t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr">
@@ -5144,23 +4987,17 @@
       </c>
       <c r="AC31" s="3" t="inlineStr">
         <is>
-          <t>MH396625, MH423324, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MH396625, MH423324, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MH396625, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411, MH396625, MH523640, MH523641, MH523642, MH523643, MH523644, MH523645, MK336155, MK336156, MK577980, MK577981, MK577982, MK577983, MK577984, MK577985, MK577986, MK577987, MK577988, MK577989, MN549402, MN549403, MN549404, MN549405, MN549406, MN549407, MN549408, MN549409, MN549410, MN549411</t>
+          <t>MH396625.1, MH423324.1, MH523640.1, MH523641.1, MH523642.1, MH523643.1, MH523644.1, MH523645.1, MK336155.1, MK336156.1, MK577980.1, MK577981.1, MK577982.1, MK577983.1, MK577984.1, MK577985.1, MK577986.1, MK577987.1, MK577988.1, MK577989.1, MN549402.1, MN549403.1, MN549404.1, MN549405.1, MN549406.1, MN549407.1, MN549408.1, MN549409.1, MN549410.1, MN549411.1</t>
         </is>
       </c>
       <c r="AD31" s="3" t="inlineStr">
         <is>
-          <t>1000-3000 (308)
-500-1000 (50)
-100-500 (48)
-5000-10000 (40)
-3000-5000 (4)</t>
+          <t>100-500 (12), 500-1000 (18), 1000-3000 (112), 3000-5000 (1), 5000-10000 (15)</t>
         </is>
       </c>
       <c r="AE31" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (326)
-75%-90% (66)
-95%-100% (58)</t>
+          <t>75%-90% (25), 90%-95% (111), 95%-100% (22)</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5333,7 @@
       <c r="J35" s="3" t="inlineStr"/>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>Nipah (14)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L35" s="3" t="inlineStr"/>
@@ -5510,7 +5347,7 @@
       </c>
       <c r="O35" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P35" s="3" t="inlineStr">
@@ -5520,25 +5357,25 @@
       </c>
       <c r="Q35" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R35" s="3" t="inlineStr"/>
       <c r="S35" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T35" s="3" t="inlineStr"/>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr"/>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t>NA (14)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X35" s="3" t="inlineStr"/>
@@ -5548,17 +5385,17 @@
       <c r="AB35" s="3" t="inlineStr"/>
       <c r="AC35" s="3" t="inlineStr">
         <is>
-          <t>GN354748, GN354747, GN354746, GN354745, GN354744, GN354743, GN354742, GN354741, GN354740, GN354739, GN354738, GN354737, GN354736, GN354735</t>
+          <t>GN354735, GN354744, GN354737, GN354742, GN354739, GN354740, GN354738, GN354748, GN354743, GN354741, GN354747, GN354736, GN354745, GN354746</t>
         </is>
       </c>
       <c r="AD35" s="3" t="inlineStr">
         <is>
-          <t>60 (14)</t>
+          <t>60 (1)</t>
         </is>
       </c>
       <c r="AE35" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (14)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5618,7 @@
       <c r="J38" s="3" t="inlineStr"/>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L38" s="3" t="inlineStr"/>
@@ -5795,7 +5632,7 @@
       </c>
       <c r="O38" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P38" s="3" t="inlineStr">
@@ -5805,25 +5642,25 @@
       </c>
       <c r="Q38" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R38" s="3" t="inlineStr"/>
       <c r="S38" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T38" s="3" t="inlineStr"/>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr"/>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X38" s="3" t="inlineStr"/>
@@ -5833,17 +5670,17 @@
       <c r="AB38" s="3" t="inlineStr"/>
       <c r="AC38" s="3" t="inlineStr">
         <is>
-          <t>DM091219, DM091218</t>
+          <t>DM091218, DM091219</t>
         </is>
       </c>
       <c r="AD38" s="3" t="inlineStr">
         <is>
-          <t>230 (2)</t>
+          <t>230 (1)</t>
         </is>
       </c>
       <c r="AE38" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5713,7 @@
       <c r="J39" s="3" t="inlineStr"/>
       <c r="K39" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L39" s="3" t="inlineStr"/>
@@ -5890,7 +5727,7 @@
       </c>
       <c r="O39" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P39" s="3" t="inlineStr">
@@ -5900,25 +5737,25 @@
       </c>
       <c r="Q39" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R39" s="3" t="inlineStr"/>
       <c r="S39" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T39" s="3" t="inlineStr"/>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr"/>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X39" s="3" t="inlineStr"/>
@@ -5933,12 +5770,12 @@
       </c>
       <c r="AD39" s="3" t="inlineStr">
         <is>
-          <t>230 (2)</t>
+          <t>230 (1)</t>
         </is>
       </c>
       <c r="AE39" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -5971,7 +5808,7 @@
       <c r="J40" s="3" t="inlineStr"/>
       <c r="K40" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L40" s="3" t="inlineStr"/>
@@ -5985,7 +5822,7 @@
       </c>
       <c r="O40" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P40" s="3" t="inlineStr">
@@ -5995,25 +5832,25 @@
       </c>
       <c r="Q40" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R40" s="3" t="inlineStr"/>
       <c r="S40" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T40" s="3" t="inlineStr"/>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr"/>
       <c r="W40" s="3" t="inlineStr">
         <is>
-          <t>genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X40" s="3" t="inlineStr"/>
@@ -6028,12 +5865,12 @@
       </c>
       <c r="AD40" s="3" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>18246 (1)</t>
         </is>
       </c>
       <c r="AE40" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -6066,7 +5903,7 @@
       <c r="J41" s="3" t="inlineStr"/>
       <c r="K41" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L41" s="3" t="inlineStr"/>
@@ -6080,7 +5917,7 @@
       </c>
       <c r="O41" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P41" s="3" t="inlineStr">
@@ -6090,25 +5927,25 @@
       </c>
       <c r="Q41" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R41" s="3" t="inlineStr"/>
       <c r="S41" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T41" s="3" t="inlineStr"/>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr"/>
       <c r="W41" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X41" s="3" t="inlineStr"/>
@@ -6118,17 +5955,17 @@
       <c r="AB41" s="3" t="inlineStr"/>
       <c r="AC41" s="3" t="inlineStr">
         <is>
-          <t>JC241930, JC241928</t>
+          <t>JC241928, JC241930</t>
         </is>
       </c>
       <c r="AD41" s="3" t="inlineStr">
         <is>
-          <t>1809 (1), 1641 (1)</t>
+          <t>1809 (1)</t>
         </is>
       </c>
       <c r="AE41" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6044,7 @@
       <c r="V42" s="3" t="inlineStr"/>
       <c r="W42" s="3" t="inlineStr">
         <is>
-          <t>genome (1)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X42" s="3" t="inlineStr"/>
@@ -6260,7 +6097,7 @@
       <c r="J43" s="3" t="inlineStr"/>
       <c r="K43" s="3" t="inlineStr">
         <is>
-          <t>Nipah (4)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L43" s="3" t="inlineStr"/>
@@ -6274,7 +6111,7 @@
       </c>
       <c r="O43" s="3" t="inlineStr">
         <is>
-          <t>NA (4)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P43" s="3" t="inlineStr">
@@ -6284,25 +6121,25 @@
       </c>
       <c r="Q43" s="3" t="inlineStr">
         <is>
-          <t>NA (4)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R43" s="3" t="inlineStr"/>
       <c r="S43" s="3" t="inlineStr">
         <is>
-          <t>NA (4)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T43" s="3" t="inlineStr"/>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>NA (4)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr"/>
       <c r="W43" s="3" t="inlineStr">
         <is>
-          <t>genome (4)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X43" s="3" t="inlineStr"/>
@@ -6312,17 +6149,17 @@
       <c r="AB43" s="3" t="inlineStr"/>
       <c r="AC43" s="3" t="inlineStr">
         <is>
-          <t>FV537360, FV537359, FV537358, FV537357</t>
+          <t>FV537359, FV537358, FV537360, FV537357</t>
         </is>
       </c>
       <c r="AD43" s="3" t="inlineStr">
         <is>
-          <t>18243 (2), 18231 (2)</t>
+          <t>18243 (1)</t>
         </is>
       </c>
       <c r="AE43" s="3" t="inlineStr">
         <is>
-          <t>75%-90% (4)</t>
+          <t>75%-90% (1)</t>
         </is>
       </c>
     </row>
@@ -6492,7 +6329,7 @@
       <c r="V45" s="3" t="inlineStr"/>
       <c r="W45" s="3" t="inlineStr">
         <is>
-          <t>genome (1)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X45" s="3" t="inlineStr"/>
@@ -6545,7 +6382,7 @@
       <c r="J46" s="3" t="inlineStr"/>
       <c r="K46" s="3" t="inlineStr">
         <is>
-          <t>Nipah (6)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L46" s="3" t="inlineStr"/>
@@ -6559,7 +6396,7 @@
       </c>
       <c r="O46" s="3" t="inlineStr">
         <is>
-          <t>Bat (6)</t>
+          <t>Bat (1)</t>
         </is>
       </c>
       <c r="P46" s="3" t="inlineStr">
@@ -6569,25 +6406,25 @@
       </c>
       <c r="Q46" s="3" t="inlineStr">
         <is>
-          <t>urine (6)</t>
+          <t>urine (1)</t>
         </is>
       </c>
       <c r="R46" s="3" t="inlineStr"/>
       <c r="S46" s="3" t="inlineStr">
         <is>
-          <t>2017.0 (4), 2016.0 (2)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="T46" s="3" t="inlineStr"/>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>Thailand (6)</t>
+          <t>Thailand (1)</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr"/>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t>NA (6)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X46" s="3" t="inlineStr"/>
@@ -6597,17 +6434,17 @@
       <c r="AB46" s="3" t="inlineStr"/>
       <c r="AC46" s="3" t="inlineStr">
         <is>
-          <t>MT125117, MT125116, MT125115, MT125114, MT125113, MT125112</t>
+          <t>MT125115, MT125112, MT125113, MT125117, MT125114, MT125116</t>
         </is>
       </c>
       <c r="AD46" s="3" t="inlineStr">
         <is>
-          <t>168 (6)</t>
+          <t>168 (1)</t>
         </is>
       </c>
       <c r="AE46" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (6)</t>
+          <t>90%-95% (1)</t>
         </is>
       </c>
     </row>
@@ -6670,7 +6507,7 @@
       <c r="R47" s="3" t="inlineStr"/>
       <c r="S47" s="3" t="inlineStr">
         <is>
-          <t>1998.0 (1)</t>
+          <t>1998 (1)</t>
         </is>
       </c>
       <c r="T47" s="3" t="inlineStr"/>
@@ -6682,7 +6519,7 @@
       <c r="V47" s="3" t="inlineStr"/>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>genome (1)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X47" s="3" t="inlineStr"/>
@@ -6735,7 +6572,7 @@
       <c r="J48" s="3" t="inlineStr"/>
       <c r="K48" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L48" s="3" t="inlineStr"/>
@@ -6749,7 +6586,7 @@
       </c>
       <c r="O48" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P48" s="3" t="inlineStr">
@@ -6759,25 +6596,25 @@
       </c>
       <c r="Q48" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R48" s="3" t="inlineStr"/>
       <c r="S48" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T48" s="3" t="inlineStr"/>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr"/>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X48" s="3" t="inlineStr"/>
@@ -6792,12 +6629,12 @@
       </c>
       <c r="AD48" s="3" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>18246 (1)</t>
         </is>
       </c>
       <c r="AE48" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6762,7 @@
       <c r="J50" s="3" t="inlineStr"/>
       <c r="K50" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L50" s="3" t="inlineStr"/>
@@ -6939,7 +6776,7 @@
       </c>
       <c r="O50" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P50" s="3" t="inlineStr">
@@ -6949,25 +6786,25 @@
       </c>
       <c r="Q50" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R50" s="3" t="inlineStr"/>
       <c r="S50" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T50" s="3" t="inlineStr"/>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr"/>
       <c r="W50" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X50" s="3" t="inlineStr"/>
@@ -6977,17 +6814,17 @@
       <c r="AB50" s="3" t="inlineStr"/>
       <c r="AC50" s="3" t="inlineStr">
         <is>
-          <t>LP133537, LP133536</t>
+          <t>LP133536, LP133537</t>
         </is>
       </c>
       <c r="AD50" s="3" t="inlineStr">
         <is>
-          <t>0 (2)</t>
+          <t>0 (1)</t>
         </is>
       </c>
       <c r="AE50" s="3" t="inlineStr">
         <is>
-          <t>0%-25% (2)</t>
+          <t>0%-25% (1)</t>
         </is>
       </c>
     </row>
@@ -7050,7 +6887,7 @@
       <c r="R51" s="3" t="inlineStr"/>
       <c r="S51" s="3" t="inlineStr">
         <is>
-          <t>2019.0 (1)</t>
+          <t>2019 (1)</t>
         </is>
       </c>
       <c r="T51" s="3" t="inlineStr"/>
@@ -7062,7 +6899,7 @@
       <c r="V51" s="3" t="inlineStr"/>
       <c r="W51" s="3" t="inlineStr">
         <is>
-          <t>genome (1)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X51" s="3" t="inlineStr"/>
@@ -7111,7 +6948,7 @@
       <c r="J52" s="3" t="inlineStr"/>
       <c r="K52" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L52" s="3" t="inlineStr"/>
@@ -7125,7 +6962,7 @@
       </c>
       <c r="O52" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (2)</t>
+          <t>Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P52" s="3" t="inlineStr">
@@ -7135,25 +6972,25 @@
       </c>
       <c r="Q52" s="3" t="inlineStr">
         <is>
-          <t>throat swab (2)</t>
+          <t>throat swab (1)</t>
         </is>
       </c>
       <c r="R52" s="3" t="inlineStr"/>
       <c r="S52" s="3" t="inlineStr">
         <is>
-          <t>2018.0 (2)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="T52" s="3" t="inlineStr"/>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>India (2)</t>
+          <t>India (1)</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr"/>
       <c r="W52" s="3" t="inlineStr">
         <is>
-          <t>genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X52" s="3" t="inlineStr"/>
@@ -7168,12 +7005,12 @@
       </c>
       <c r="AD52" s="3" t="inlineStr">
         <is>
-          <t>500-1000 (2), 1000-3000 (14), 3000-5000 (1), 5000-10000 (1)</t>
+          <t>500-1000 (1), 1000-3000 (7), 5000-10000 (1)</t>
         </is>
       </c>
       <c r="AE52" s="3" t="inlineStr">
         <is>
-          <t>75%-90% (2), 90%-95% (13), 95%-100% (3)</t>
+          <t>75%-90% (1), 90%-95% (6), 95%-100% (2)</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7043,7 @@
       <c r="J53" s="3" t="inlineStr"/>
       <c r="K53" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L53" s="3" t="inlineStr"/>
@@ -7220,7 +7057,7 @@
       </c>
       <c r="O53" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P53" s="3" t="inlineStr">
@@ -7230,25 +7067,25 @@
       </c>
       <c r="Q53" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R53" s="3" t="inlineStr"/>
       <c r="S53" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T53" s="3" t="inlineStr"/>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr"/>
       <c r="W53" s="3" t="inlineStr">
         <is>
-          <t>genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X53" s="3" t="inlineStr"/>
@@ -7258,17 +7095,17 @@
       <c r="AB53" s="3" t="inlineStr"/>
       <c r="AC53" s="3" t="inlineStr">
         <is>
-          <t>FB344269, HD053189</t>
+          <t>HD053189, FB344269</t>
         </is>
       </c>
       <c r="AD53" s="3" t="inlineStr">
         <is>
-          <t>18246 (2)</t>
+          <t>18246 (1)</t>
         </is>
       </c>
       <c r="AE53" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7138,7 @@
       <c r="J54" s="3" t="inlineStr"/>
       <c r="K54" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L54" s="3" t="inlineStr"/>
@@ -7315,7 +7152,7 @@
       </c>
       <c r="O54" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P54" s="3" t="inlineStr">
@@ -7325,25 +7162,25 @@
       </c>
       <c r="Q54" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R54" s="3" t="inlineStr"/>
       <c r="S54" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T54" s="3" t="inlineStr"/>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>USA (1), NA (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr"/>
       <c r="W54" s="3" t="inlineStr">
         <is>
-          <t>genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X54" s="3" t="inlineStr"/>
@@ -7353,17 +7190,17 @@
       <c r="AB54" s="3" t="inlineStr"/>
       <c r="AC54" s="3" t="inlineStr">
         <is>
-          <t>OK572974, OK573014</t>
+          <t>OK573014, OK572974</t>
         </is>
       </c>
       <c r="AD54" s="3" t="inlineStr">
         <is>
-          <t>18119 (1), 17961 (1)</t>
+          <t>17961 (1)</t>
         </is>
       </c>
       <c r="AE54" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -7396,7 +7233,7 @@
       <c r="J55" s="3" t="inlineStr"/>
       <c r="K55" s="3" t="inlineStr">
         <is>
-          <t>Nipah (5)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L55" s="3" t="inlineStr"/>
@@ -7410,7 +7247,7 @@
       </c>
       <c r="O55" s="3" t="inlineStr">
         <is>
-          <t>NA (5)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P55" s="3" t="inlineStr">
@@ -7420,25 +7257,25 @@
       </c>
       <c r="Q55" s="3" t="inlineStr">
         <is>
-          <t>NA (5)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R55" s="3" t="inlineStr"/>
       <c r="S55" s="3" t="inlineStr">
         <is>
-          <t>NA (5)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T55" s="3" t="inlineStr"/>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>NA (5)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr"/>
       <c r="W55" s="3" t="inlineStr">
         <is>
-          <t>NA (5)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X55" s="3" t="inlineStr"/>
@@ -7448,17 +7285,17 @@
       <c r="AB55" s="3" t="inlineStr"/>
       <c r="AC55" s="3" t="inlineStr">
         <is>
-          <t>HW614202, LV577552, LY330213, LZ231520, MA137125</t>
+          <t>MA137125, HW614202, LY330213, LZ231520, LV577552</t>
         </is>
       </c>
       <c r="AD55" s="3" t="inlineStr">
         <is>
-          <t>1809 (5)</t>
+          <t>1809 (1)</t>
         </is>
       </c>
       <c r="AE55" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (5)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7328,7 @@
       <c r="J56" s="3" t="inlineStr"/>
       <c r="K56" s="3" t="inlineStr">
         <is>
-          <t>Nipah (3)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L56" s="3" t="inlineStr"/>
@@ -7505,7 +7342,7 @@
       </c>
       <c r="O56" s="3" t="inlineStr">
         <is>
-          <t>Bat (3)</t>
+          <t>Bat (1)</t>
         </is>
       </c>
       <c r="P56" s="3" t="inlineStr">
@@ -7515,25 +7352,25 @@
       </c>
       <c r="Q56" s="3" t="inlineStr">
         <is>
-          <t>NA (3)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R56" s="3" t="inlineStr"/>
       <c r="S56" s="3" t="inlineStr">
         <is>
-          <t>2013.0 (3)</t>
+          <t>2013 (1)</t>
         </is>
       </c>
       <c r="T56" s="3" t="inlineStr"/>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>Cambodia (3)</t>
+          <t>Cambodia (1)</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr"/>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>NA (3)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X56" s="3" t="inlineStr"/>
@@ -7548,12 +7385,12 @@
       </c>
       <c r="AD56" s="3" t="inlineStr">
         <is>
-          <t>227 (2), 1599 (1)</t>
+          <t>227 (1)</t>
         </is>
       </c>
       <c r="AE56" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (2), 95%-100% (1)</t>
+          <t>90%-95% (1)</t>
         </is>
       </c>
     </row>
@@ -7586,7 +7423,7 @@
       <c r="J57" s="3" t="inlineStr"/>
       <c r="K57" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L57" s="3" t="inlineStr"/>
@@ -7600,7 +7437,7 @@
       </c>
       <c r="O57" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="P57" s="3" t="inlineStr">
@@ -7610,25 +7447,25 @@
       </c>
       <c r="Q57" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R57" s="3" t="inlineStr"/>
       <c r="S57" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T57" s="3" t="inlineStr"/>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr"/>
       <c r="W57" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X57" s="3" t="inlineStr"/>
@@ -7638,17 +7475,17 @@
       <c r="AB57" s="3" t="inlineStr"/>
       <c r="AC57" s="3" t="inlineStr">
         <is>
-          <t>DI399829, LY995020</t>
+          <t>LY995020, DI399829</t>
         </is>
       </c>
       <c r="AD57" s="3" t="inlineStr">
         <is>
-          <t>1809 (2)</t>
+          <t>1809 (1)</t>
         </is>
       </c>
       <c r="AE57" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7514,7 @@
       <c r="J58" s="3" t="inlineStr"/>
       <c r="K58" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L58" s="3" t="inlineStr"/>
@@ -7691,7 +7528,7 @@
       </c>
       <c r="O58" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (2)</t>
+          <t>Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P58" s="3" t="inlineStr">
@@ -7701,25 +7538,25 @@
       </c>
       <c r="Q58" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R58" s="3" t="inlineStr"/>
       <c r="S58" s="3" t="inlineStr">
         <is>
-          <t>1999.0 (2)</t>
+          <t>1999 (1)</t>
         </is>
       </c>
       <c r="T58" s="3" t="inlineStr"/>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>Malaysia (2)</t>
+          <t>Malaysia (1)</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr"/>
       <c r="W58" s="3" t="inlineStr">
         <is>
-          <t>genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X58" s="3" t="inlineStr"/>
@@ -7734,12 +7571,12 @@
       </c>
       <c r="AD58" s="3" t="inlineStr">
         <is>
-          <t>500-1000 (2), 1000-3000 (14), 5000-10000 (2)</t>
+          <t>500-1000 (1), 1000-3000 (7), 5000-10000 (1)</t>
         </is>
       </c>
       <c r="AE58" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (18)</t>
+          <t>95%-100% (9)</t>
         </is>
       </c>
     </row>
@@ -7772,7 +7609,7 @@
       <c r="J59" s="3" t="inlineStr"/>
       <c r="K59" s="3" t="inlineStr">
         <is>
-          <t>Nipah (4)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L59" s="3" t="inlineStr"/>
@@ -7786,7 +7623,7 @@
       </c>
       <c r="O59" s="3" t="inlineStr">
         <is>
-          <t>Bat (4)</t>
+          <t>Bat (1)</t>
         </is>
       </c>
       <c r="P59" s="3" t="inlineStr">
@@ -7796,25 +7633,25 @@
       </c>
       <c r="Q59" s="3" t="inlineStr">
         <is>
-          <t>urine (4)</t>
+          <t>urine (1)</t>
         </is>
       </c>
       <c r="R59" s="3" t="inlineStr"/>
       <c r="S59" s="3" t="inlineStr">
         <is>
-          <t>2019.0 (2), 2018.0 (2)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="T59" s="3" t="inlineStr"/>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>Sri Lanka (4)</t>
+          <t>Sri Lanka (1)</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr"/>
       <c r="W59" s="3" t="inlineStr">
         <is>
-          <t>NA (2), genome (2)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X59" s="3" t="inlineStr"/>
@@ -7829,12 +7666,12 @@
       </c>
       <c r="AD59" s="3" t="inlineStr">
         <is>
-          <t>255 (1), 17960 (1), 481 (1), 7763 (1)</t>
+          <t>7763 (1)</t>
         </is>
       </c>
       <c r="AE59" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (4)</t>
+          <t>90%-95% (1)</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7704,7 @@
       <c r="J60" s="3" t="inlineStr"/>
       <c r="K60" s="3" t="inlineStr">
         <is>
-          <t>Nipah (24)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L60" s="3" t="inlineStr"/>
@@ -7881,7 +7718,7 @@
       </c>
       <c r="O60" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (23), Bat (1)</t>
+          <t>Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P60" s="3" t="inlineStr">
@@ -7891,25 +7728,25 @@
       </c>
       <c r="Q60" s="3" t="inlineStr">
         <is>
-          <t>throat swab (19), urine (2), breast milk (1), blood (1), NA (1)</t>
+          <t>throat swab (1)</t>
         </is>
       </c>
       <c r="R60" s="3" t="inlineStr"/>
       <c r="S60" s="3" t="inlineStr">
         <is>
-          <t>2023.0 (11), 2020.0 (5), 2022.0 (3), 2017.0 (2), 2012.0 (1), 2019.0 (1), 2018.0 (1)</t>
+          <t>2017 (1)</t>
         </is>
       </c>
       <c r="T60" s="3" t="inlineStr"/>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>Bangladesh (24)</t>
+          <t>Bangladesh (1)</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr"/>
       <c r="W60" s="3" t="inlineStr">
         <is>
-          <t>genome (24)</t>
+          <t>Other (1)</t>
         </is>
       </c>
       <c r="X60" s="3" t="inlineStr"/>
@@ -7919,17 +7756,17 @@
       <c r="AB60" s="3" t="inlineStr"/>
       <c r="AC60" s="3" t="inlineStr">
         <is>
-          <t>PP981664, PP981665, PP981666, PP981667, PP981668, PP981669, PP981670, PP981671, PP981672, PP981673, PP981674, PP981675, PP981676, PP981677, PP981678, PP981679, PP981680, PP981681, PP981682, PP981683, PP981684, PQ368168, PQ368169, PQ368170</t>
+          <t>PP981675, PP981665, PQ368169, PP981677, PP981669, PP981673, PQ368170, PP981684, PP981671, PP981682, PP981668, PP981664, PP981667, PP981676, PP981679, PP981674, PP981683, PP981678, PP981666, PQ368168, PP981670, PP981681, PP981672, PP981680</t>
         </is>
       </c>
       <c r="AD60" s="3" t="inlineStr">
         <is>
-          <t>100-500 (2), 500-1000 (25), 1000-3000 (157), 3000-5000 (3), 5000-10000 (20)</t>
+          <t>500-1000 (1), 1000-3000 (7), 5000-10000 (1)</t>
         </is>
       </c>
       <c r="AE60" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (185), 95%-100% (22)</t>
+          <t>90%-95% (8), 95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -7962,7 +7799,7 @@
       <c r="J61" s="3" t="inlineStr"/>
       <c r="K61" s="3" t="inlineStr">
         <is>
-          <t>Nipah (3)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L61" s="3" t="inlineStr"/>
@@ -7976,7 +7813,7 @@
       </c>
       <c r="O61" s="3" t="inlineStr">
         <is>
-          <t>Bat (3)</t>
+          <t>Bat (1)</t>
         </is>
       </c>
       <c r="P61" s="3" t="inlineStr">
@@ -7986,25 +7823,25 @@
       </c>
       <c r="Q61" s="3" t="inlineStr">
         <is>
-          <t>urine (3)</t>
+          <t>urine (1)</t>
         </is>
       </c>
       <c r="R61" s="3" t="inlineStr"/>
       <c r="S61" s="3" t="inlineStr">
         <is>
-          <t>2008.0 (3)</t>
+          <t>2008 (1)</t>
         </is>
       </c>
       <c r="T61" s="3" t="inlineStr"/>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>Malaysia (3)</t>
+          <t>Malaysia (1)</t>
         </is>
       </c>
       <c r="V61" s="3" t="inlineStr"/>
       <c r="W61" s="3" t="inlineStr">
         <is>
-          <t>NA (3)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X61" s="3" t="inlineStr"/>
@@ -8014,17 +7851,17 @@
       <c r="AB61" s="3" t="inlineStr"/>
       <c r="AC61" s="3" t="inlineStr">
         <is>
-          <t>HM545086, HM545087, HM545088</t>
+          <t>HM545088, HM545086, HM545087</t>
         </is>
       </c>
       <c r="AD61" s="3" t="inlineStr">
         <is>
-          <t>6735 (1), 2130 (1), 1809 (1)</t>
+          <t>1809 (1)</t>
         </is>
       </c>
       <c r="AE61" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (3)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -8057,7 +7894,7 @@
       <c r="J62" s="3" t="inlineStr"/>
       <c r="K62" s="3" t="inlineStr">
         <is>
-          <t>Nipah (8)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L62" s="3" t="inlineStr"/>
@@ -8071,7 +7908,7 @@
       </c>
       <c r="O62" s="3" t="inlineStr">
         <is>
-          <t>Bat (8)</t>
+          <t>Bat (1)</t>
         </is>
       </c>
       <c r="P62" s="3" t="inlineStr">
@@ -8081,25 +7918,25 @@
       </c>
       <c r="Q62" s="3" t="inlineStr">
         <is>
-          <t>NA (8)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="R62" s="3" t="inlineStr"/>
       <c r="S62" s="3" t="inlineStr">
         <is>
-          <t>NA (8)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="T62" s="3" t="inlineStr"/>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>Thailand (8)</t>
+          <t>Thailand (1)</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr"/>
       <c r="W62" s="3" t="inlineStr">
         <is>
-          <t>NA (8)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X62" s="3" t="inlineStr"/>
@@ -8109,17 +7946,17 @@
       <c r="AB62" s="3" t="inlineStr"/>
       <c r="AC62" s="3" t="inlineStr">
         <is>
-          <t>DQ061851, DQ061852, DQ061853, DQ061854, DQ061855, DQ061856, DQ061857, DQ061858</t>
+          <t>DQ061858, DQ061854, DQ061853, DQ061857, DQ061855, DQ061851, DQ061856, DQ061852</t>
         </is>
       </c>
       <c r="AD62" s="3" t="inlineStr">
         <is>
-          <t>357 (8)</t>
+          <t>357 (1)</t>
         </is>
       </c>
       <c r="AE62" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (7), 95%-100% (1)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
@@ -8152,7 +7989,7 @@
       <c r="J63" s="3" t="inlineStr"/>
       <c r="K63" s="3" t="inlineStr">
         <is>
-          <t>Nipah (8)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L63" s="3" t="inlineStr"/>
@@ -8166,7 +8003,7 @@
       </c>
       <c r="O63" s="3" t="inlineStr">
         <is>
-          <t>Bat (8)</t>
+          <t>Bat (1)</t>
         </is>
       </c>
       <c r="P63" s="3" t="inlineStr">
@@ -8176,25 +8013,25 @@
       </c>
       <c r="Q63" s="3" t="inlineStr">
         <is>
-          <t>urine (8)</t>
+          <t>urine (1)</t>
         </is>
       </c>
       <c r="R63" s="3" t="inlineStr"/>
       <c r="S63" s="3" t="inlineStr">
         <is>
-          <t>2008.0 (6), 2004.0 (2)</t>
+          <t>2004 (1)</t>
         </is>
       </c>
       <c r="T63" s="3" t="inlineStr"/>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>Thailand (8)</t>
+          <t>Thailand (1)</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr"/>
       <c r="W63" s="3" t="inlineStr">
         <is>
-          <t>NA (8)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X63" s="3" t="inlineStr"/>
@@ -8204,17 +8041,17 @@
       <c r="AB63" s="3" t="inlineStr"/>
       <c r="AC63" s="3" t="inlineStr">
         <is>
-          <t>FJ648075, FJ648076, FJ648077, FJ648078, FJ648079, FJ648080, FJ648081, FJ648082</t>
+          <t>FJ648075, FJ648080, FJ648078, FJ648076, FJ648079, FJ648077, FJ648082, FJ648081</t>
         </is>
       </c>
       <c r="AD63" s="3" t="inlineStr">
         <is>
-          <t>357 (8)</t>
+          <t>357 (1)</t>
         </is>
       </c>
       <c r="AE63" s="3" t="inlineStr">
         <is>
-          <t>90%-95% (8)</t>
+          <t>90%-95% (1)</t>
         </is>
       </c>
     </row>
@@ -8247,7 +8084,7 @@
       <c r="J64" s="3" t="inlineStr"/>
       <c r="K64" s="3" t="inlineStr">
         <is>
-          <t>Nipah (2)</t>
+          <t>Nipah (1)</t>
         </is>
       </c>
       <c r="L64" s="3" t="inlineStr"/>
@@ -8261,7 +8098,7 @@
       </c>
       <c r="O64" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens (2)</t>
+          <t>Homo sapiens (1)</t>
         </is>
       </c>
       <c r="P64" s="3" t="inlineStr">
@@ -8271,25 +8108,25 @@
       </c>
       <c r="Q64" s="3" t="inlineStr">
         <is>
-          <t>throat swab (1), urine (1)</t>
+          <t>urine (1)</t>
         </is>
       </c>
       <c r="R64" s="3" t="inlineStr"/>
       <c r="S64" s="3" t="inlineStr">
         <is>
-          <t>2018.0 (2)</t>
+          <t>2018 (1)</t>
         </is>
       </c>
       <c r="T64" s="3" t="inlineStr"/>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>India (2)</t>
+          <t>India (1)</t>
         </is>
       </c>
       <c r="V64" s="3" t="inlineStr"/>
       <c r="W64" s="3" t="inlineStr">
         <is>
-          <t>NA (2)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X64" s="3" t="inlineStr"/>
@@ -8304,12 +8141,12 @@
       </c>
       <c r="AD64" s="3" t="inlineStr">
         <is>
-          <t>1491 (2)</t>
+          <t>1491 (1)</t>
         </is>
       </c>
       <c r="AE64" s="3" t="inlineStr">
         <is>
-          <t>95%-100% (2)</t>
+          <t>95%-100% (1)</t>
         </is>
       </c>
     </row>
